--- a/data/IEEE9/Market Data/ieee9_market_data_2024.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268EF25-9709-4A24-9D78-2B826310A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47F570-557D-4D51-9ECE-DC7DE783F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="4815" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2024.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47F570-557D-4D51-9ECE-DC7DE783F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E5AF2C-CEC5-4156-96D4-C525A59EE543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23970" yWindow="4455" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
